--- a/data/trans_orig/IP07A21_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A21_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{300A19DA-BE2A-4F9A-93D5-9CC430233233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96B4556A-0C71-49B6-A7EB-4FDF8E4B4735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EE4C2DCB-26B5-42C0-8016-81EB8482D584}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2F240DA4-3625-43FF-8A71-C796906F799F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>66,42%</t>
   </si>
   <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
   </si>
   <si>
     <t>68,58%</t>
   </si>
   <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
   </si>
   <si>
     <t>67,53%</t>
   </si>
   <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>78,66%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -104,28 +104,28 @@
     <t>23,99%</t>
   </si>
   <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
   </si>
   <si>
     <t>28,07%</t>
   </si>
   <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
   </si>
   <si>
     <t>26,08%</t>
   </si>
   <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -137,19 +137,19 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>17,61%</t>
+    <t>13,57%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>7,81%</t>
+    <t>8,32%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>7,67%</t>
+    <t>8,86%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -158,19 +158,22 @@
     <t>6,49%</t>
   </si>
   <si>
-    <t>20,61%</t>
+    <t>20,96%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>11,41%</t>
+    <t>10,82%</t>
   </si>
   <si>
     <t>4,17%</t>
   </si>
   <si>
-    <t>11,66%</t>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -197,349 +200,346 @@
     <t>70,15%</t>
   </si>
   <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
   </si>
   <si>
     <t>65,51%</t>
   </si>
   <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
   </si>
   <si>
     <t>68,02%</t>
   </si>
   <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
   </si>
   <si>
     <t>25,43%</t>
   </si>
   <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
   </si>
   <si>
     <t>29,9%</t>
   </si>
   <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
   </si>
   <si>
     <t>27,48%</t>
   </si>
   <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>57,05%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>72,13%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
     <t>23,68%</t>
   </si>
   <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
   </si>
   <si>
     <t>1,82%</t>
   </si>
   <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
   </si>
   <si>
     <t>0,9%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -954,7 +954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028BB31E-C8B3-4453-9DF2-A870F75E1CC6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06899C0A-CA44-4A34-A937-BD8EBD14230B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1264,16 +1264,16 @@
         <v>43</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -1285,10 +1285,10 @@
         <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1315,10 +1315,10 @@
         <v>32</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1333,13 +1333,13 @@
         <v>26621</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H9" s="7">
         <v>34</v>
@@ -1348,13 +1348,13 @@
         <v>27983</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M9" s="7">
         <v>67</v>
@@ -1363,18 +1363,18 @@
         <v>54604</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1386,13 +1386,13 @@
         <v>206392</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H10" s="7">
         <v>217</v>
@@ -1401,13 +1401,13 @@
         <v>163945</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M10" s="7">
         <v>452</v>
@@ -1416,13 +1416,13 @@
         <v>370337</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1437,13 +1437,13 @@
         <v>74814</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H11" s="7">
         <v>96</v>
@@ -1452,13 +1452,13 @@
         <v>74823</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M11" s="7">
         <v>179</v>
@@ -1467,13 +1467,13 @@
         <v>149638</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1488,13 +1488,13 @@
         <v>10212</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H12" s="7">
         <v>8</v>
@@ -1503,13 +1503,13 @@
         <v>6302</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M12" s="7">
         <v>21</v>
@@ -1518,13 +1518,13 @@
         <v>16514</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1539,13 +1539,13 @@
         <v>1012</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -1554,13 +1554,13 @@
         <v>4383</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -1569,19 +1569,19 @@
         <v>5395</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
         <v>2</v>
@@ -1590,13 +1590,13 @@
         <v>1790</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1605,13 +1605,13 @@
         <v>818</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -1620,13 +1620,13 @@
         <v>2608</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1641,13 +1641,13 @@
         <v>294220</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H15" s="7">
         <v>328</v>
@@ -1656,13 +1656,13 @@
         <v>250271</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M15" s="7">
         <v>662</v>
@@ -1671,18 +1671,18 @@
         <v>544491</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1694,13 +1694,13 @@
         <v>71865</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7">
         <v>74</v>
@@ -1709,13 +1709,13 @@
         <v>55068</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M16" s="7">
         <v>162</v>
@@ -1850,7 +1850,7 @@
         <v>32</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>122</v>
@@ -1889,7 +1889,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
         <v>0</v>
@@ -1901,7 +1901,7 @@
         <v>32</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>122</v>
@@ -1916,7 +1916,7 @@
         <v>32</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>127</v>
@@ -1931,7 +1931,7 @@
         <v>32</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>128</v>
@@ -1949,13 +1949,13 @@
         <v>96711</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H21" s="7">
         <v>114</v>
@@ -1964,13 +1964,13 @@
         <v>83017</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M21" s="7">
         <v>235</v>
@@ -1979,13 +1979,13 @@
         <v>179728</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2104,7 +2104,7 @@
         <v>14496</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>146</v>
@@ -2185,19 +2185,19 @@
         <v>8429</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
         <v>2</v>
@@ -2206,13 +2206,13 @@
         <v>1790</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2236,7 +2236,7 @@
         <v>2608</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>166</v>
@@ -2257,13 +2257,13 @@
         <v>417552</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H27" s="7">
         <v>476</v>
@@ -2272,13 +2272,13 @@
         <v>361271</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M27" s="7">
         <v>964</v>
@@ -2287,13 +2287,13 @@
         <v>778823</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP07A21_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07A21_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96B4556A-0C71-49B6-A7EB-4FDF8E4B4735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1B8354C-E1A5-4EA3-9580-627F9C47838A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2F240DA4-3625-43FF-8A71-C796906F799F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0EB5D03B-6A54-41A3-89EC-9097497F8DCE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="169">
-  <si>
-    <t>Menores según frecuencia de sentirse lleno de energía en 2023 (Tasa respuesta: 50,21%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="176">
+  <si>
+    <t>Menores según frecuencia de sentirse lleno de energía en 2023 (Tasa respuesta: 50,31%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,478 +68,499 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>3,1%</t>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>1,37%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>13,57%</t>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>41,93%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
   </si>
   <si>
     <t>1,0%</t>
   </si>
   <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>63,3%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>72,13%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -954,7 +975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06899C0A-CA44-4A34-A937-BD8EBD14230B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F19D34B2-B785-4A07-8C45-9907740120A1}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1072,10 +1093,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" s="7">
-        <v>17682</v>
+        <v>21859</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1087,10 +1108,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>19190</v>
+        <v>9301</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1102,10 +1123,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="N4" s="7">
-        <v>36872</v>
+        <v>31159</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1126,7 +1147,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>6387</v>
+        <v>5806</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1138,10 +1159,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I5" s="7">
-        <v>7855</v>
+        <v>11482</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1153,10 +1174,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="N5" s="7">
-        <v>14242</v>
+        <v>17289</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1177,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>824</v>
+        <v>391</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1189,106 +1210,106 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>391</v>
+        <v>3856</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N6" s="7">
-        <v>1215</v>
+        <v>4247</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>1727</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>548</v>
+        <v>2896</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
       </c>
       <c r="N7" s="7">
-        <v>2275</v>
+        <v>2896</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>526</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1300,25 +1321,25 @@
         <v>32</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>526</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1327,102 +1348,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>34</v>
+      </c>
+      <c r="D9" s="7">
+        <v>28582</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" s="7">
         <v>33</v>
       </c>
-      <c r="D9" s="7">
-        <v>26621</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="7">
-        <v>34</v>
-      </c>
       <c r="I9" s="7">
-        <v>27983</v>
+        <v>27535</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
         <v>67</v>
       </c>
       <c r="N9" s="7">
-        <v>54604</v>
+        <v>56116</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="D10" s="7">
-        <v>206392</v>
+        <v>171366</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H10" s="7">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="I10" s="7">
-        <v>163945</v>
+        <v>200611</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
-        <v>452</v>
+        <v>412</v>
       </c>
       <c r="N10" s="7">
-        <v>370337</v>
+        <v>371977</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1431,49 +1452,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="D11" s="7">
-        <v>74814</v>
+        <v>78943</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H11" s="7">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I11" s="7">
-        <v>74823</v>
+        <v>84751</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M11" s="7">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="N11" s="7">
-        <v>149638</v>
+        <v>163693</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1482,148 +1503,148 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7">
-        <v>10212</v>
+        <v>5615</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H12" s="7">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I12" s="7">
-        <v>6302</v>
+        <v>19375</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M12" s="7">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N12" s="7">
-        <v>16514</v>
+        <v>24990</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>1012</v>
+        <v>4463</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>4383</v>
+        <v>3495</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M13" s="7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N13" s="7">
-        <v>5395</v>
+        <v>7958</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>1790</v>
+        <v>848</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>818</v>
+        <v>1014</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>2608</v>
+        <v>1862</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>94</v>
@@ -1635,49 +1656,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>329</v>
+      </c>
+      <c r="D15" s="7">
+        <v>261235</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15" s="7">
         <v>334</v>
       </c>
-      <c r="D15" s="7">
-        <v>294220</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="7">
-        <v>328</v>
-      </c>
       <c r="I15" s="7">
-        <v>250271</v>
+        <v>309246</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="N15" s="7">
-        <v>544491</v>
+        <v>570481</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1688,10 +1709,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="D16" s="7">
-        <v>71865</v>
+        <v>40504</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>96</v>
@@ -1703,10 +1724,10 @@
         <v>98</v>
       </c>
       <c r="H16" s="7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I16" s="7">
-        <v>55068</v>
+        <v>69325</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>99</v>
@@ -1715,22 +1736,22 @@
         <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="N16" s="7">
-        <v>126933</v>
+        <v>109829</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1739,49 +1760,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D17" s="7">
-        <v>21387</v>
+        <v>35686</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H17" s="7">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I17" s="7">
-        <v>25006</v>
+        <v>28252</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="N17" s="7">
-        <v>46393</v>
+        <v>63938</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1793,148 +1814,148 @@
         <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>3459</v>
+        <v>2207</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H18" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18" s="7">
-        <v>2183</v>
+        <v>4617</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M18" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N18" s="7">
-        <v>5643</v>
+        <v>6824</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>1576</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>122</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>759</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>2</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1576</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>759</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>808</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>1558</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1943,49 +1964,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D21" s="7">
-        <v>96711</v>
+        <v>80781</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I21" s="7">
-        <v>83017</v>
+        <v>102943</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N21" s="7">
-        <v>179728</v>
+        <v>183724</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1996,49 +2017,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>345</v>
+        <v>281</v>
       </c>
       <c r="D22" s="7">
-        <v>295940</v>
+        <v>233730</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H22" s="7">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="I22" s="7">
-        <v>238203</v>
+        <v>279236</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M22" s="7">
-        <v>661</v>
+        <v>583</v>
       </c>
       <c r="N22" s="7">
-        <v>534142</v>
+        <v>512966</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,49 +2068,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="D23" s="7">
-        <v>102588</v>
+        <v>120435</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H23" s="7">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="I23" s="7">
-        <v>107684</v>
+        <v>124485</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M23" s="7">
-        <v>260</v>
+        <v>324</v>
       </c>
       <c r="N23" s="7">
-        <v>210272</v>
+        <v>244920</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2098,151 +2119,151 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D24" s="7">
-        <v>14496</v>
+        <v>8213</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>71</v>
+        <v>149</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H24" s="7">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I24" s="7">
-        <v>8875</v>
+        <v>27848</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M24" s="7">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N24" s="7">
-        <v>23371</v>
+        <v>36061</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D25" s="7">
-        <v>2739</v>
+        <v>6039</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H25" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I25" s="7">
-        <v>5690</v>
+        <v>6391</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M25" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="N25" s="7">
-        <v>8429</v>
+        <v>12430</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2181</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H26" s="7">
         <v>2</v>
       </c>
-      <c r="D26" s="7">
-        <v>1790</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
       <c r="I26" s="7">
-        <v>818</v>
+        <v>1764</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="M26" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N26" s="7">
-        <v>2608</v>
+        <v>3945</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>90</v>
+        <v>172</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2251,54 +2272,54 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="D27" s="7">
-        <v>417552</v>
+        <v>370598</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H27" s="7">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="I27" s="7">
-        <v>361271</v>
+        <v>439724</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="N27" s="7">
-        <v>778823</v>
+        <v>810322</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
